--- a/public/result.xlsx
+++ b/public/result.xlsx
@@ -415,13 +415,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>321</v>
+        <v>23</v>
       </c>
       <c r="B2" t="str">
-        <v>2132</v>
+        <v>213</v>
       </c>
       <c r="C2">
-        <v>2453</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/public/result.xlsx
+++ b/public/result.xlsx
@@ -418,10 +418,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="str">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>236</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
